--- a/Code/Results/Cases/Case_2_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_183/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.82379670665859</v>
+        <v>15.10887317818423</v>
       </c>
       <c r="C2">
-        <v>19.31249122156721</v>
+        <v>11.3650495583562</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.42819057178945</v>
+        <v>16.59571206078571</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>33.32894602680558</v>
+        <v>25.21245522896909</v>
       </c>
       <c r="H2">
-        <v>9.388033182772702</v>
+        <v>12.54707813218811</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.03586247769393</v>
+        <v>14.30894659641013</v>
       </c>
       <c r="C3">
-        <v>18.05341636417516</v>
+        <v>10.71428075818618</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.12395416449843</v>
+        <v>15.64325292521643</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>31.08087227569779</v>
+        <v>24.82128794009859</v>
       </c>
       <c r="H3">
-        <v>9.175301595289289</v>
+        <v>12.5995419000182</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.88218895251221</v>
+        <v>13.79642824505341</v>
       </c>
       <c r="C4">
-        <v>17.24331985789933</v>
+        <v>10.29214069113385</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.6539418683515</v>
+        <v>15.0336158413651</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>29.7321372434702</v>
+        <v>24.60066255999779</v>
       </c>
       <c r="H4">
-        <v>9.06746415776634</v>
+        <v>12.63716491894867</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39775006672672</v>
+        <v>13.58243340822524</v>
       </c>
       <c r="C5">
-        <v>16.9037622503114</v>
+        <v>10.11449612797202</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.04036199436781</v>
+        <v>14.77920870365523</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>29.19078080276437</v>
+        <v>24.51579785755388</v>
       </c>
       <c r="H5">
-        <v>9.028917496944214</v>
+        <v>12.65384129831487</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.31643815808042</v>
+        <v>13.54659693162307</v>
       </c>
       <c r="C6">
-        <v>16.84680592136587</v>
+        <v>10.08466091329749</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.93758156024012</v>
+        <v>14.73661256982682</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>29.10140101263764</v>
+        <v>24.50201387455851</v>
       </c>
       <c r="H6">
-        <v>9.022832903195583</v>
+        <v>12.6566911480946</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.87571389393403</v>
+        <v>13.79356270792069</v>
       </c>
       <c r="C7">
-        <v>17.2387788190762</v>
+        <v>10.28976758190879</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.64572659792027</v>
+        <v>15.03020861819096</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>29.72480230061121</v>
+        <v>24.59949748180511</v>
       </c>
       <c r="H7">
-        <v>9.066922896223261</v>
+        <v>12.63738439904023</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.21875068206539</v>
+        <v>14.83761819200115</v>
       </c>
       <c r="C8">
-        <v>18.88595803420473</v>
+        <v>11.14537664815471</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.64472839572298</v>
+        <v>16.27260058222469</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>32.54738242763182</v>
+        <v>25.07360442045384</v>
       </c>
       <c r="H8">
-        <v>9.309761354509913</v>
+        <v>12.56403545185865</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.38320971847378</v>
+        <v>16.70730653922966</v>
       </c>
       <c r="C9">
-        <v>21.82997898679806</v>
+        <v>12.64242998345016</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.12182167297963</v>
+        <v>18.62411721303596</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>38.55665303805641</v>
+        <v>26.1519113437168</v>
       </c>
       <c r="H9">
-        <v>9.980776619970609</v>
+        <v>12.46380737966844</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.20157165147219</v>
+        <v>17.96392978987947</v>
       </c>
       <c r="C10">
-        <v>23.83217034009891</v>
+        <v>13.6305202902591</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.95579992673896</v>
+        <v>20.29484425364355</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>43.14370621403199</v>
+        <v>27.02472522888752</v>
       </c>
       <c r="H10">
-        <v>10.68775088536802</v>
+        <v>12.41765636949583</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.43697697068224</v>
+        <v>18.50888775218222</v>
       </c>
       <c r="C11">
-        <v>24.71210558272366</v>
+        <v>14.05558663438246</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.67453402802889</v>
+        <v>21.01289937957582</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>45.26773202746413</v>
+        <v>27.43691421910216</v>
       </c>
       <c r="H11">
-        <v>11.20246459890522</v>
+        <v>12.40281112229978</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.89864900762677</v>
+        <v>18.71133087111512</v>
       </c>
       <c r="C12">
-        <v>25.04129597577895</v>
+        <v>14.21302969089083</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.32339306705055</v>
+        <v>21.27881432123309</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>46.078999664671</v>
+        <v>27.59496987122466</v>
       </c>
       <c r="H12">
-        <v>11.39947950769265</v>
+        <v>12.39808778519321</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.79948306579539</v>
+        <v>18.6679066378776</v>
       </c>
       <c r="C13">
-        <v>24.97057020968975</v>
+        <v>14.17927816683989</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>41.18370774168204</v>
+        <v>21.22181089566174</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>45.90393916744732</v>
+        <v>27.56084554593762</v>
       </c>
       <c r="H13">
-        <v>11.35694796688846</v>
+        <v>12.39906487574467</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.4750786477984</v>
+        <v>18.52562186033195</v>
       </c>
       <c r="C14">
-        <v>24.73926617427059</v>
+        <v>14.06861015477792</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.72794510095575</v>
+        <v>21.03489633335404</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>45.33432546239215</v>
+        <v>27.44987930088805</v>
       </c>
       <c r="H14">
-        <v>11.21862838854057</v>
+        <v>12.40240445089227</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.27558925044838</v>
+        <v>18.43795556896152</v>
       </c>
       <c r="C15">
-        <v>24.59707587886541</v>
+        <v>14.00036417525759</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.44857376416321</v>
+        <v>20.91962590789258</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>44.98638052313961</v>
+        <v>27.38215941528273</v>
       </c>
       <c r="H15">
-        <v>11.13419081707479</v>
+        <v>12.40456741723979</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.11994158311799</v>
+        <v>17.92777099701518</v>
       </c>
       <c r="C16">
-        <v>23.77407702294716</v>
+        <v>13.60224894186689</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.84310017999223</v>
+        <v>20.2470764183676</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>43.00577095920094</v>
+        <v>26.99807461247434</v>
       </c>
       <c r="H16">
-        <v>10.65438458440159</v>
+        <v>12.41875149003098</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.39940359790159</v>
+        <v>17.60788942251626</v>
       </c>
       <c r="C17">
-        <v>23.26155770719951</v>
+        <v>13.35175560736382</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.85277277607388</v>
+        <v>19.82376731799244</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>41.80126384187701</v>
+        <v>26.76618156984216</v>
       </c>
       <c r="H17">
-        <v>10.41750453475069</v>
+        <v>12.42903807504735</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.98053637581595</v>
+        <v>17.42139390634369</v>
       </c>
       <c r="C18">
-        <v>22.96383484986804</v>
+        <v>13.20538002183271</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.28065827842423</v>
+        <v>19.57633873380563</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>41.1118571194537</v>
+        <v>26.63424079744398</v>
       </c>
       <c r="H18">
-        <v>10.32077142199187</v>
+        <v>12.43553263269658</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.83793819343634</v>
+        <v>17.35782178669836</v>
       </c>
       <c r="C19">
-        <v>22.86251550878485</v>
+        <v>13.1554253491349</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.08647498284576</v>
+        <v>19.4918836854512</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>40.87897879446994</v>
+        <v>26.58982120684303</v>
       </c>
       <c r="H19">
-        <v>10.28855687991219</v>
+        <v>12.4378304094971</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.47656110986953</v>
+        <v>17.64220159841066</v>
       </c>
       <c r="C20">
-        <v>23.31641730384199</v>
+        <v>13.37865900889039</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.9584430993181</v>
+        <v>19.86923807651075</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>41.92912460655497</v>
+        <v>26.79071965984567</v>
       </c>
       <c r="H20">
-        <v>10.43566572507988</v>
+        <v>12.42788312744717</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.5705259688173</v>
+        <v>18.56752133139301</v>
       </c>
       <c r="C21">
-        <v>24.80731116476246</v>
+        <v>14.10121161876771</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.86185256865609</v>
+        <v>21.08996012578658</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>45.50143122291994</v>
+        <v>27.48242102190673</v>
       </c>
       <c r="H21">
-        <v>11.25919551103292</v>
+        <v>12.40139905082014</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.90355289450655</v>
+        <v>19.14939175136637</v>
       </c>
       <c r="C22">
-        <v>25.75851542104082</v>
+        <v>14.5529214648925</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.74886344100254</v>
+        <v>21.85283520027986</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>47.87774303567009</v>
+        <v>27.94586500857743</v>
       </c>
       <c r="H22">
-        <v>11.83704278723579</v>
+        <v>12.3893317544469</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.19512495237458</v>
+        <v>18.84095320961656</v>
       </c>
       <c r="C23">
-        <v>25.25279867795697</v>
+        <v>14.31371466002683</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.74204562382016</v>
+        <v>21.44885871735851</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>46.60499443572292</v>
+        <v>27.69754452525425</v>
       </c>
       <c r="H23">
-        <v>11.52733078638493</v>
+        <v>12.39528825563114</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.44169263121175</v>
+        <v>17.62669712864225</v>
       </c>
       <c r="C24">
-        <v>23.29162486877292</v>
+        <v>13.36650334253616</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.91067826974277</v>
+        <v>19.848693403368</v>
       </c>
       <c r="F24">
-        <v>36.85121910575582</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>41.87130927192004</v>
+        <v>26.779621682536</v>
       </c>
       <c r="H24">
-        <v>10.42744526322633</v>
+        <v>12.42840347169196</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.30067602615362</v>
+        <v>16.22154101703097</v>
       </c>
       <c r="C25">
-        <v>21.06293498701753</v>
+        <v>12.25699011043208</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.67812286806225</v>
+        <v>17.97139014462723</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>36.89267175854747</v>
+        <v>25.84527235897597</v>
       </c>
       <c r="H25">
-        <v>9.776442061494285</v>
+        <v>12.48615799805519</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_183/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.10887317818423</v>
+        <v>25.82379670665861</v>
       </c>
       <c r="C2">
-        <v>11.3650495583562</v>
+        <v>19.31249122156729</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.59571206078571</v>
+        <v>30.4281905717895</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>25.21245522896909</v>
+        <v>33.32894602680568</v>
       </c>
       <c r="H2">
-        <v>12.54707813218811</v>
+        <v>9.388033182772711</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.30894659641013</v>
+        <v>24.0358624776939</v>
       </c>
       <c r="C3">
-        <v>10.71428075818618</v>
+        <v>18.05341636417493</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.64325292521643</v>
+        <v>28.12395416449841</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>24.82128794009859</v>
+        <v>31.08087227569795</v>
       </c>
       <c r="H3">
-        <v>12.5995419000182</v>
+        <v>9.175301595289316</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.79642824505341</v>
+        <v>22.88218895251221</v>
       </c>
       <c r="C4">
-        <v>10.29214069113385</v>
+        <v>17.24331985789933</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.0336158413651</v>
+        <v>26.65394186835143</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>24.60066255999779</v>
+        <v>29.73213724347013</v>
       </c>
       <c r="H4">
-        <v>12.63716491894867</v>
+        <v>9.067464157766331</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.58243340822524</v>
+        <v>22.39775006672661</v>
       </c>
       <c r="C5">
-        <v>10.11449612797202</v>
+        <v>16.90376225031153</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.77920870365523</v>
+        <v>26.04036199436782</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>24.51579785755388</v>
+        <v>29.19078080276424</v>
       </c>
       <c r="H5">
-        <v>12.65384129831487</v>
+        <v>9.02891749694426</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.54659693162307</v>
+        <v>22.31643815808036</v>
       </c>
       <c r="C6">
-        <v>10.08466091329749</v>
+        <v>16.8468059213659</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.73661256982682</v>
+        <v>25.93758156024009</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>24.50201387455851</v>
+        <v>29.10140101263754</v>
       </c>
       <c r="H6">
-        <v>12.6566911480946</v>
+        <v>9.022832903195615</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.79356270792069</v>
+        <v>22.87571389393411</v>
       </c>
       <c r="C7">
-        <v>10.28976758190879</v>
+        <v>17.23877881907628</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.03020861819096</v>
+        <v>26.64572659792025</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>24.59949748180511</v>
+        <v>29.72480230061112</v>
       </c>
       <c r="H7">
-        <v>12.63738439904023</v>
+        <v>9.066922896223163</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.83761819200115</v>
+        <v>25.21875068206544</v>
       </c>
       <c r="C8">
-        <v>11.14537664815471</v>
+        <v>18.88595803420474</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.27260058222469</v>
+        <v>29.64472839572294</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>25.07360442045384</v>
+        <v>32.54738242763159</v>
       </c>
       <c r="H8">
-        <v>12.56403545185865</v>
+        <v>9.309761354509893</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.70730653922966</v>
+        <v>29.38320971847376</v>
       </c>
       <c r="C9">
-        <v>12.64242998345016</v>
+        <v>21.829978986798</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.62411721303596</v>
+        <v>35.12182167297957</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>26.1519113437168</v>
+        <v>38.55665303805636</v>
       </c>
       <c r="H9">
-        <v>12.46380737966844</v>
+        <v>9.98077661997065</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.96392978987947</v>
+        <v>32.20157165147233</v>
       </c>
       <c r="C10">
-        <v>13.6305202902591</v>
+        <v>23.83217034009888</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.29484425364355</v>
+        <v>38.95579992673913</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>27.02472522888752</v>
+        <v>43.14370621403249</v>
       </c>
       <c r="H10">
-        <v>12.41765636949583</v>
+        <v>10.68775088536812</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.50888775218222</v>
+        <v>33.43697697068211</v>
       </c>
       <c r="C11">
-        <v>14.05558663438246</v>
+        <v>24.71210558272367</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.01289937957582</v>
+        <v>40.67453402802882</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>27.43691421910216</v>
+        <v>45.26773202746385</v>
       </c>
       <c r="H11">
-        <v>12.40281112229978</v>
+        <v>11.20246459890519</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.71133087111512</v>
+        <v>33.89864900762682</v>
       </c>
       <c r="C12">
-        <v>14.21302969089083</v>
+        <v>25.04129597577888</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.27881432123309</v>
+        <v>41.32339306705051</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>27.59496987122466</v>
+        <v>46.07899966467102</v>
       </c>
       <c r="H12">
-        <v>12.39808778519321</v>
+        <v>11.39947950769269</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.6679066378776</v>
+        <v>33.79948306579536</v>
       </c>
       <c r="C13">
-        <v>14.17927816683989</v>
+        <v>24.97057020968979</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.22181089566174</v>
+        <v>41.183707741682</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>27.56084554593762</v>
+        <v>45.90393916744712</v>
       </c>
       <c r="H13">
-        <v>12.39906487574467</v>
+        <v>11.35694796688846</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.52562186033195</v>
+        <v>33.47507864779843</v>
       </c>
       <c r="C14">
-        <v>14.06861015477792</v>
+        <v>24.73926617427057</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.03489633335404</v>
+        <v>40.72794510095575</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>27.44987930088805</v>
+        <v>45.33432546239182</v>
       </c>
       <c r="H14">
-        <v>12.40240445089227</v>
+        <v>11.21862838854048</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.43795556896152</v>
+        <v>33.27558925044841</v>
       </c>
       <c r="C15">
-        <v>14.00036417525759</v>
+        <v>24.59707587886544</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.91962590789258</v>
+        <v>40.44857376416319</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>27.38215941528273</v>
+        <v>44.9863805231396</v>
       </c>
       <c r="H15">
-        <v>12.40456741723979</v>
+        <v>11.1341908170748</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.92777099701518</v>
+        <v>32.11994158311791</v>
       </c>
       <c r="C16">
-        <v>13.60224894186689</v>
+        <v>23.7740770229472</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.2470764183676</v>
+        <v>38.84310017999206</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>26.99807461247434</v>
+        <v>43.00577095920082</v>
       </c>
       <c r="H16">
-        <v>12.41875149003098</v>
+        <v>10.65438458440154</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.60788942251626</v>
+        <v>31.3994035979016</v>
       </c>
       <c r="C17">
-        <v>13.35175560736382</v>
+        <v>23.26155770719943</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.82376731799244</v>
+        <v>37.85277277607394</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>26.76618156984216</v>
+        <v>41.8012638418768</v>
       </c>
       <c r="H17">
-        <v>12.42903807504735</v>
+        <v>10.41750453475063</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.42139390634369</v>
+        <v>30.98053637581589</v>
       </c>
       <c r="C18">
-        <v>13.20538002183271</v>
+        <v>22.96383484986813</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.57633873380563</v>
+        <v>37.28065827842423</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>26.63424079744398</v>
+        <v>41.11185711945344</v>
       </c>
       <c r="H18">
-        <v>12.43553263269658</v>
+        <v>10.32077142199188</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.35782178669836</v>
+        <v>30.83793819343635</v>
       </c>
       <c r="C19">
-        <v>13.1554253491349</v>
+        <v>22.86251550878489</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.4918836854512</v>
+        <v>37.08647498284581</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>26.58982120684303</v>
+        <v>40.87897879446991</v>
       </c>
       <c r="H19">
-        <v>12.4378304094971</v>
+        <v>10.28855687991218</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.64220159841066</v>
+        <v>31.47656110986962</v>
       </c>
       <c r="C20">
-        <v>13.37865900889039</v>
+        <v>23.31641730384207</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.86923807651075</v>
+        <v>37.95844309931813</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>26.79071965984567</v>
+        <v>41.92912460655538</v>
       </c>
       <c r="H20">
-        <v>12.42788312744717</v>
+        <v>10.43566572507991</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.56752133139301</v>
+        <v>33.57052596881738</v>
       </c>
       <c r="C21">
-        <v>14.10121161876771</v>
+        <v>24.80731116476258</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.08996012578658</v>
+        <v>40.86185256865613</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>27.48242102190673</v>
+        <v>45.50143122291996</v>
       </c>
       <c r="H21">
-        <v>12.40139905082014</v>
+        <v>11.2591955110329</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.14939175136637</v>
+        <v>34.90355289450655</v>
       </c>
       <c r="C22">
-        <v>14.5529214648925</v>
+        <v>25.75851542104072</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.85283520027986</v>
+        <v>42.74886344100246</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>27.94586500857743</v>
+        <v>47.87774303566981</v>
       </c>
       <c r="H22">
-        <v>12.3893317544469</v>
+        <v>11.83704278723577</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.84095320961656</v>
+        <v>34.19512495237456</v>
       </c>
       <c r="C23">
-        <v>14.31371466002683</v>
+        <v>25.25279867795699</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.44885871735851</v>
+        <v>41.7420456238202</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>27.69754452525425</v>
+        <v>46.60499443572291</v>
       </c>
       <c r="H23">
-        <v>12.39528825563114</v>
+        <v>11.52733078638495</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.62669712864225</v>
+        <v>31.44169263121169</v>
       </c>
       <c r="C24">
-        <v>13.36650334253616</v>
+        <v>23.29162486877286</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.848693403368</v>
+        <v>37.91067826974277</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>26.779621682536</v>
+        <v>41.87130927191993</v>
       </c>
       <c r="H24">
-        <v>12.42840347169196</v>
+        <v>10.42744526322633</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.22154101703097</v>
+        <v>28.30067602615366</v>
       </c>
       <c r="C25">
-        <v>12.25699011043208</v>
+        <v>21.06293498701752</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.97139014462723</v>
+        <v>33.67812286806224</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127051</v>
       </c>
       <c r="G25">
-        <v>25.84527235897597</v>
+        <v>36.89267175854741</v>
       </c>
       <c r="H25">
-        <v>12.48615799805519</v>
+        <v>9.776442061494253</v>
       </c>
       <c r="I25">
         <v>0</v>
